--- a/biology/Microbiologie/Microgoutte/Microgoutte.xlsx
+++ b/biology/Microbiologie/Microgoutte/Microgoutte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une microgoutte, ou protobionte, est un microglobule d'une solution de polymères entouré d'une micelle de lipides.
 Les microgouttes sont parfois considérés comme les précurseurs des cellules vivantes, dans le cadre des recherches sur l'abiogenèse.
